--- a/AACS_Deliverables.xlsx
+++ b/AACS_Deliverables.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>AACS Deliverables</t>
   </si>
@@ -107,6 +107,24 @@
     <t>AACS_Cryptographic_Algorithms</t>
   </si>
   <si>
+    <t>Remaing work</t>
+  </si>
+  <si>
+    <t>AACS_Remaing_work</t>
+  </si>
+  <si>
+    <t>AACS Setup Manual</t>
+  </si>
+  <si>
+    <t>AACS_Setup_Manual</t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>AACS_UX</t>
+  </si>
+  <si>
     <t>Security Response Contact</t>
   </si>
   <si>
@@ -120,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -147,6 +165,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -191,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -234,8 +253,8 @@
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
@@ -246,10 +265,13 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -631,7 +653,9 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="14"/>
+      <c r="B3" s="14">
+        <v>1.0</v>
+      </c>
       <c r="C3" s="15" t="s">
         <v>13</v>
       </c>
@@ -641,7 +665,9 @@
       <c r="E3" s="17"/>
     </row>
     <row r="4">
-      <c r="B4" s="14"/>
+      <c r="B4" s="14">
+        <v>2.0</v>
+      </c>
       <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
@@ -651,7 +677,9 @@
       <c r="E4" s="17"/>
     </row>
     <row r="5">
-      <c r="B5" s="14"/>
+      <c r="B5" s="14">
+        <v>3.0</v>
+      </c>
       <c r="C5" s="15" t="s">
         <v>17</v>
       </c>
@@ -661,7 +689,9 @@
       <c r="E5" s="17"/>
     </row>
     <row r="6">
-      <c r="B6" s="14"/>
+      <c r="B6" s="14">
+        <v>4.0</v>
+      </c>
       <c r="C6" s="15" t="s">
         <v>19</v>
       </c>
@@ -671,7 +701,9 @@
       <c r="E6" s="17"/>
     </row>
     <row r="7">
-      <c r="B7" s="14"/>
+      <c r="B7" s="14">
+        <v>5.0</v>
+      </c>
       <c r="C7" s="15" t="s">
         <v>21</v>
       </c>
@@ -681,7 +713,9 @@
       <c r="E7" s="17"/>
     </row>
     <row r="8">
-      <c r="B8" s="14"/>
+      <c r="B8" s="14">
+        <v>6.0</v>
+      </c>
       <c r="C8" s="15" t="s">
         <v>23</v>
       </c>
@@ -691,7 +725,9 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="14"/>
+      <c r="B9" s="14">
+        <v>7.0</v>
+      </c>
       <c r="C9" s="15" t="s">
         <v>25</v>
       </c>
@@ -701,7 +737,9 @@
       <c r="E9" s="19"/>
     </row>
     <row r="10">
-      <c r="B10" s="14"/>
+      <c r="B10" s="14">
+        <v>8.0</v>
+      </c>
       <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
@@ -711,7 +749,9 @@
       <c r="E10" s="17"/>
     </row>
     <row r="11">
-      <c r="B11" s="14"/>
+      <c r="B11" s="14">
+        <v>9.0</v>
+      </c>
       <c r="C11" s="15" t="s">
         <v>29</v>
       </c>
@@ -721,32 +761,52 @@
       <c r="E11" s="17"/>
     </row>
     <row r="12">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="14">
+        <v>10.0</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="17"/>
     </row>
     <row r="13">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="B13" s="14">
+        <v>11.0</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="17"/>
     </row>
     <row r="14">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="B14" s="14">
+        <v>12.0</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="17"/>
     </row>
     <row r="15">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="B15" s="14">
+        <v>13.0</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="17"/>
     </row>
     <row r="16">
       <c r="B16" s="10"/>
@@ -6663,6 +6723,24 @@
       <c r="C1001" s="10"/>
       <c r="D1001" s="11"/>
       <c r="E1001" s="11"/>
+    </row>
+    <row r="1002">
+      <c r="B1002" s="10"/>
+      <c r="C1002" s="10"/>
+      <c r="D1002" s="11"/>
+      <c r="E1002" s="11"/>
+    </row>
+    <row r="1003">
+      <c r="B1003" s="10"/>
+      <c r="C1003" s="10"/>
+      <c r="D1003" s="11"/>
+      <c r="E1003" s="11"/>
+    </row>
+    <row r="1004">
+      <c r="B1004" s="10"/>
+      <c r="C1004" s="10"/>
+      <c r="D1004" s="11"/>
+      <c r="E1004" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/AACS_Deliverables.xlsx
+++ b/AACS_Deliverables.xlsx
@@ -107,10 +107,10 @@
     <t>AACS_Cryptographic_Algorithms</t>
   </si>
   <si>
-    <t>Remaing work</t>
+    <t>Remaing works</t>
   </si>
   <si>
-    <t>AACS_Remaing_work</t>
+    <t>AACS_Remaing_works</t>
   </si>
   <si>
     <t>AACS Setup Manual</t>
